--- a/test/test_data_files/rounds.xlsx
+++ b/test/test_data_files/rounds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamlynch/Documents/HobbyWork/golf-tracker/adams_golf_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A48B8-7A72-0948-8AD2-CE0E53D43C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBDD0DC-B698-BD45-BE75-28107719E6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17400" activeTab="5" xr2:uid="{756941FC-0F4E-6742-AA79-FAEAEC5B4D2A}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="5" xr2:uid="{756941FC-0F4E-6742-AA79-FAEAEC5B4D2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rounds" sheetId="2" r:id="rId1"/>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
